--- a/medicine/Maladies infectieuses/Vaccins_contre_la_variole/Vaccins_contre_la_variole.xlsx
+++ b/medicine/Maladies infectieuses/Vaccins_contre_la_variole/Vaccins_contre_la_variole.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Les vaccins contre la variole sont des vaccins qui préviennent la variole et le variole du singe [1],[2]. Pour la variole, il était efficace à environ 95 % pendant 3 à 5 ans,d [1] pour le variole du singe, il a été efficace à au moins 85 %[3]. Bien qu'il ne soit pas systématiquement administré pour prévenir la variole, il est disponible pour les expositions potentielles[4], il était recommandé aux personnes à haut risque de ces maladies[3].
+Les vaccins contre la variole sont des vaccins qui préviennent la variole et le variole du singe ,. Pour la variole, il était efficace à environ 95 % pendant 3 à 5 ans,d  pour le variole du singe, il a été efficace à au moins 85 %. Bien qu'il ne soit pas systématiquement administré pour prévenir la variole, il est disponible pour les expositions potentielles, il était recommandé aux personnes à haut risque de ces maladies.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Les types</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les vaccins actuels incluent ACAM2000, qui a été approuvé pour un usage médical aux États-Unis en 2007 et MVA-BN qui a été approuvé en 2019[5],[2]. L'ACAM2000 est un vaccin vivant qui peut se dupliquer, tandis que MVA-BN est un vaccin vivant qui ne peut pas se dupliquer[3], d'autres types sont à l'étude[4].Les vaccins plus anciens sont administrés par scarification tandis que les plus récents sont administrés par injection sous-cutanée[5],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les vaccins actuels incluent ACAM2000, qui a été approuvé pour un usage médical aux États-Unis en 2007 et MVA-BN qui a été approuvé en 2019,. L'ACAM2000 est un vaccin vivant qui peut se dupliquer, tandis que MVA-BN est un vaccin vivant qui ne peut pas se dupliquer, d'autres types sont à l'étude.Les vaccins plus anciens sont administrés par scarification tandis que les plus récents sont administrés par injection sous-cutanée,.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les effets secondaires courants d'ACAM2000 comprennent des ganglions lymphatiques enflés, la fatigue, la fièvre et des éruptions cutanées au site d'inoculation[5], en outre les effets secondaires graves peuvent inclure la myocardite, l'eczéma vaccinatum et l'encéphalite [5]. L'utilisation pendant la grossesse peut nuire au fœtus[5]. Les effets secondaires courants du MVA-BN comprennent la douleur au site d'injection, la fatigue, les douleurs musculaires et les maux de tête[2], en outre les effets secondaires graves peuvent inclure l'anaphylaxie [2], il n'y a aucune preuve de dommages accrus pendant la grossesse ou l'eczéma [2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les effets secondaires courants d'ACAM2000 comprennent des ganglions lymphatiques enflés, la fatigue, la fièvre et des éruptions cutanées au site d'inoculation, en outre les effets secondaires graves peuvent inclure la myocardite, l'eczéma vaccinatum et l'encéphalite . L'utilisation pendant la grossesse peut nuire au fœtus. Les effets secondaires courants du MVA-BN comprennent la douleur au site d'injection, la fatigue, les douleurs musculaires et les maux de tête, en outre les effets secondaires graves peuvent inclure l'anaphylaxie , il n'y a aucune preuve de dommages accrus pendant la grossesse ou l'eczéma .
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le vaccin contre la variole a été appliqué pour la première fois de manière scientifique en 1796, lorsque Edward Jenner a démontré que l'infection par le virus relativement bénin de la cowpox conférait une protection contre la variole[6], alors que le cowpox avait déjà été utilisé en 1774 par Benjamin Jesty et d'autres médecins dans les années 1700, mais n'avait pas fait l'objet d'une promotion aussi importante [6]. De 1966 à 1977, l'Organisation mondiale de la santé a mené une campagne de vaccination qui a éradiqué la variole, ce qui en fait la seule maladie humaine à être éradiquée[6],[7]. Dans les années 2000, le coût d'un vaccin réplicatif était d'environ 5 USD par dose alors que celui d'un vaccin non réplicatif était d'environ 29 USD[8].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le vaccin contre la variole a été appliqué pour la première fois de manière scientifique en 1796, lorsque Edward Jenner a démontré que l'infection par le virus relativement bénin de la cowpox conférait une protection contre la variole, alors que le cowpox avait déjà été utilisé en 1774 par Benjamin Jesty et d'autres médecins dans les années 1700, mais n'avait pas fait l'objet d'une promotion aussi importante . De 1966 à 1977, l'Organisation mondiale de la santé a mené une campagne de vaccination qui a éradiqué la variole, ce qui en fait la seule maladie humaine à être éradiquée,. Dans les années 2000, le coût d'un vaccin réplicatif était d'environ 5 USD par dose alors que celui d'un vaccin non réplicatif était d'environ 29 USD.
 </t>
         </is>
       </c>
